--- a/Forecast_fer_MP.xlsx
+++ b/Forecast_fer_MP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inno2023\Prediction_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{A264516E-FBBD-4CC2-AC2F-2FA857EFBF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{FC035371-BA39-4C0D-A49E-0BCE07887168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC48BC57-B34E-4F85-82DD-D38724ECF3EB}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -548,31 +548,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>43739</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
       <c r="D2" s="2">
         <v>4819</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2">
         <v>312</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
       <c r="L2" s="2">
         <v>5131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -594,15 +608,23 @@
       <c r="G3" s="2">
         <v>9660</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
       <c r="L3" s="2">
         <v>86353</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -640,7 +662,7 @@
         <v>31174</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,7 +700,7 @@
         <v>78672</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,7 +738,7 @@
         <v>371700</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +776,7 @@
         <v>292767</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,7 +814,7 @@
         <v>179754</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,7 +852,7 @@
         <v>155429</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -868,7 +890,7 @@
         <v>109865</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -906,7 +928,7 @@
         <v>86025</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -944,7 +966,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -954,17 +976,27 @@
       <c r="C13" s="2">
         <v>309</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <v>1175</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2">
         <v>334</v>
       </c>
@@ -972,7 +1004,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,19 +1014,35 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
       <c r="L14" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1080,7 @@
         <v>99986</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1118,7 @@
         <v>170032</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1128,9 @@
       <c r="C17" s="2">
         <v>5532</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
         <v>1627</v>
       </c>
@@ -1090,17 +1140,23 @@
       <c r="G17" s="2">
         <v>9081</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="2">
         <v>11383</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
       <c r="L17" s="2">
         <v>29573</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1131,12 +1187,14 @@
       <c r="J18" s="2">
         <v>12111</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="L18" s="2">
         <v>149566</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1232,7 @@
         <v>73316</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1270,7 @@
         <v>149660</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>376421</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1346,7 @@
         <v>270374</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1384,7 @@
         <v>315503</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1422,7 @@
         <v>240988</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>162287</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1440,7 +1498,7 @@
         <v>113999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1511,9 @@
       <c r="D27" s="2">
         <v>1304</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
       <c r="F27" s="2">
         <v>3164</v>
       </c>
@@ -1476,23 +1536,37 @@
         <v>15277</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3">
         <v>44470</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
       <c r="F28" s="2">
         <v>1561</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
       <c r="K28" s="2">
         <v>134</v>
       </c>
@@ -1500,7 +1574,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,19 +1584,35 @@
       <c r="C29" s="2">
         <v>145</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
       <c r="L29" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1560,31 +1650,45 @@
         <v>143845</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="4">
         <v>44409</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
       <c r="F31" s="2">
         <v>4650</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
       <c r="J31" s="2">
         <v>740</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
       <c r="L31" s="2">
         <v>5390</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,15 +1698,21 @@
       <c r="C32" s="2">
         <v>40065</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
       <c r="E32" s="2">
         <v>32942</v>
       </c>
       <c r="F32" s="2">
         <v>6477</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
       <c r="I32" s="2">
         <v>64392</v>
       </c>
@@ -1616,7 +1726,7 @@
         <v>148899</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1635,7 +1745,9 @@
       <c r="F33" s="2">
         <v>14501</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
       <c r="H33" s="2">
         <v>26967</v>
       </c>
@@ -1652,7 +1764,7 @@
         <v>197649</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1783,9 @@
       <c r="F34" s="2">
         <v>27518</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
       <c r="H34" s="2">
         <v>105894</v>
       </c>
@@ -1688,7 +1802,7 @@
         <v>304880</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1821,9 @@
       <c r="F35" s="2">
         <v>18760</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
       <c r="H35" s="2">
         <v>57434</v>
       </c>
@@ -1724,7 +1840,7 @@
         <v>161955</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1859,9 @@
       <c r="F36" s="2">
         <v>6231</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
       <c r="H36" s="2">
         <v>39150</v>
       </c>
@@ -1760,7 +1878,7 @@
         <v>109198</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1897,9 @@
       <c r="F37" s="2">
         <v>5303</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
       <c r="H37" s="2">
         <v>36367</v>
       </c>
@@ -1796,7 +1916,7 @@
         <v>182318</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1935,9 @@
       <c r="F38" s="2">
         <v>10801</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
       <c r="H38" s="2">
         <v>100433</v>
       </c>
@@ -1832,7 +1954,7 @@
         <v>348053</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1973,9 @@
       <c r="F39" s="2">
         <v>19717</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
       <c r="H39" s="2">
         <v>33294</v>
       </c>
@@ -1868,7 +1992,7 @@
         <v>265794</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +2011,9 @@
       <c r="F40" s="2">
         <v>15358</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
       <c r="H40" s="2">
         <v>49051</v>
       </c>
@@ -1904,7 +2030,7 @@
         <v>324599</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +2049,9 @@
       <c r="F41" s="2">
         <v>10816</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
       <c r="H41" s="2">
         <v>26996</v>
       </c>
@@ -1940,7 +2068,7 @@
         <v>151511</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +2087,9 @@
       <c r="F42" s="2">
         <v>5940</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
       <c r="H42" s="2">
         <v>33208</v>
       </c>
@@ -1976,7 +2106,7 @@
         <v>118806</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +2125,9 @@
       <c r="F43" s="2">
         <v>7428</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
       <c r="H43" s="2">
         <v>15424</v>
       </c>
@@ -2012,14 +2144,16 @@
         <v>88764</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="3">
         <v>44805</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
       <c r="D44" s="2">
         <v>839</v>
       </c>
@@ -2029,9 +2163,15 @@
       <c r="F44" s="2">
         <v>3506</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
       <c r="J44" s="2">
         <v>2311</v>
       </c>
@@ -2042,7 +2182,7 @@
         <v>8034</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,19 +2192,35 @@
       <c r="C45" s="2">
         <v>190</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
       <c r="L45" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,16 +2230,24 @@
       <c r="C46" s="2">
         <v>30510</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
       <c r="E46" s="2">
         <v>23648</v>
       </c>
       <c r="F46" s="2">
         <v>1866</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
       <c r="J46" s="2">
         <v>24971</v>
       </c>
@@ -2094,7 +2258,7 @@
         <v>81469</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2277,9 @@
       <c r="F47" s="2">
         <v>6995</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
       <c r="H47" s="2">
         <v>3727</v>
       </c>
@@ -2130,7 +2296,7 @@
         <v>132558</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2315,9 @@
       <c r="F48" s="2">
         <v>5836</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
       <c r="H48" s="2">
         <v>11912</v>
       </c>
@@ -2166,7 +2334,7 @@
         <v>115727</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2353,9 @@
       <c r="F49" s="2">
         <v>4374</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
       <c r="H49" s="2">
         <v>93904</v>
       </c>
@@ -2202,7 +2372,7 @@
         <v>172323</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2391,9 @@
       <c r="F50" s="2">
         <v>11292</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
       <c r="H50" s="2">
         <v>31365</v>
       </c>
@@ -2238,7 +2410,7 @@
         <v>114341</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2429,9 @@
       <c r="F51" s="2">
         <v>8504</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
       <c r="H51" s="2">
         <v>58632</v>
       </c>
@@ -2274,7 +2448,7 @@
         <v>220269</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2467,9 @@
       <c r="F52" s="2">
         <v>11517</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
       <c r="H52" s="2">
         <v>70454</v>
       </c>
@@ -2310,7 +2486,7 @@
         <v>250294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2505,9 @@
       <c r="F53" s="2">
         <v>10918</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
       <c r="H53" s="2">
         <v>69178</v>
       </c>
@@ -2346,7 +2524,7 @@
         <v>215338</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2543,9 @@
       <c r="F54" s="2">
         <v>18350</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
       <c r="H54" s="2">
         <v>69327</v>
       </c>
@@ -2382,7 +2562,7 @@
         <v>333153</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2581,9 @@
       <c r="F55" s="2">
         <v>2230</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
       <c r="H55" s="2">
         <v>20343</v>
       </c>

--- a/Forecast_fer_MP.xlsx
+++ b/Forecast_fer_MP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inno2023\Prediction_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{FC035371-BA39-4C0D-A49E-0BCE07887168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{6DF5924E-B662-4A51-8633-6208AB826BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC48BC57-B34E-4F85-82DD-D38724ECF3EB}"/>
   </bookViews>
@@ -83,10 +83,10 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>Month_Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -512,10 +512,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
